--- a/LAPTOP_RESULTS/laptop_averages.xlsx
+++ b/LAPTOP_RESULTS/laptop_averages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\repos\sorting-benchmark\LAPTOP_RESULTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\OC\sorting-benchmark\LAPTOP_RESULTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805E76B0-00F1-457C-ABF5-E62ED32114A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE437F3D-4E58-411A-A356-81E4BD57009E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="laptop_averages" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,6 +593,2764 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Regular</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sorting algorithms performance chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-150"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bubblesort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1573199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5851199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3959200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2385599999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.000878999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.639801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.016639999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.223761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.118518999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DFF-4506-AC06-852826551643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Insertionsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$22:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$22:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.9680000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9264399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6945999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.35032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.406841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7567199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8DFF-4506-AC06-852826551643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Selectionsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$52:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$52:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0796399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2380399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5169199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8724400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1603209999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0431589999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.127961000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.390879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8DFF-4506-AC06-852826551643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Shakersort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$62:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$62:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1526800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1947999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.036001000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.602320000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.556799000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.821760000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.478680000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8DFF-4506-AC06-852826551643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80026480"/>
+        <c:axId val="80031472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80026480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Element</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80031472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80031472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sorting</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> algorithm[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80026480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-150"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-150"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advanced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sorting algorithms performance chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-150"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Heapsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$12:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.452E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3120000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4759999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7519999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1159999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3719999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1AA-4F70-8C3C-D347DD78A399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>qsort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$32:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$32:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4400000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9599999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.392E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4639999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8160000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4360000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6080000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8559999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0680000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1AA-4F70-8C3C-D347DD78A399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Recursive quicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>laptop_averages!$A$42:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>laptop_averages!$C$42:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.48E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1599999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0359999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.128E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.304E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.516E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.636E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D1AA-4F70-8C3C-D347DD78A399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="77008960"/>
+        <c:axId val="77009792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77008960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77009792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77009792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-150"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-150"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77008960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-150"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-150"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471208</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406E77C9-458F-4B95-8483-7A95F22A5B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91168533-1FEB-4C7D-8FAC-452611765837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -889,14 +3647,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R14" activeCellId="1" sqref="Q41 R14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,777 +3672,781 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1.48E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4.4400000000000004E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1573199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4.3600000000000002E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5851199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.28820000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.3959200000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8.2385599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>11.000878999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>13.639801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>17.016639999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>21.223761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>25.118518999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0.22736000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6.9680000000000006E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.13039999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>20000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>20000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>8.9599999999999992E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>20000</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>9.3600000000000003E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>20000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
       <c r="C12">
-        <v>1.1573199999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20000</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.93428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.3600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0.26532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.452E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>4.5199999999999997E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.988E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1.392E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4759999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1.452E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7519999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>80000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>90000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5.1159999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5.3719999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>6.9680000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0.26532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>30000</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>2.5851199999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>30000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>2.1526800000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>30000</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>0.58948</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>30000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>1.0796399999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>40000</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>40000</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>2.4639999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>40000</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>2.3120000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.27712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>5.3959200000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9264399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>4.6829999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6945999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28">
-        <v>1.27712</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.35032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>80000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>4.406841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>90000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>5.5275999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>6.7567199999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4.4400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>8.9599999999999992E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1.392E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>40000</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>2.2380399999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>50000</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>9.1599999999999997E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>50000</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>2.8160000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>50000</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>2.988E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>50000</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>8.2385599999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>50000</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>7.1947999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>50000</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
       <c r="C35">
-        <v>1.9264399999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50000</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>3.5169199999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>60000</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>1.0359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4360000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>3.4360000000000002E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>3.4759999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>11.000878999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8559999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>10.036001000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0680000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>2.6945999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.48E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>4.8724400000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>1.128E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.5199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>3.6080000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>3.7519999999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.1599999999999997E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>13.639801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0359999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>70000</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>12.602320000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.128E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>3.35032</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.304E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>6.1603209999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.516E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>1.304E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.636E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.13039999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>4.2799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>17.016639999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0796399999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>16.556799000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2380399999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>4.406841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5169199999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57">
+        <v>4.8724400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>70000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>6.1603209999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>80000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
         <v>8.0431589999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>90000</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>1.516E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>90000</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>4.8559999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>90000</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>5.1159999999999997E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.127961000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>21.223761</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.390879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>20.821760000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.22736000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>90000</v>
+        <v>20000</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>5.5275999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.93428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>10.127961000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1526800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>1.636E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6829999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>5.0680000000000003E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.1947999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>5.3719999999999997E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.036001000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>25.118518999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12.602320000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69">
-        <v>25.478680000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16.556799000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>6.7567199999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20.821760000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>100000</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>12.390879</v>
+        <v>25.478680000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
+    <sortCondition ref="B29:B71"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>